--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -485,6 +485,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,9 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -507,6 +507,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -522,15 +531,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,9 +553,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -830,44 +830,44 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
@@ -902,7 +902,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
@@ -922,7 +922,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
@@ -963,7 +963,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
@@ -983,7 +983,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2009</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2010</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2011</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
@@ -1077,14 +1077,14 @@
         <v>34</v>
       </c>
       <c r="F12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2015</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2016</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2016</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
@@ -1317,14 +1317,14 @@
         <v>38</v>
       </c>
       <c r="F24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>2018</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>2018</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2019</v>
       </c>
@@ -1391,11 +1391,11 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1408,11 +1408,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1438,14 +1438,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
   <si>
     <t>Year</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>500th Anniversary - Death of Leonardo da Vinci</t>
+  </si>
+  <si>
+    <t>Rev: old map of Europe</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - "R"</t>
   </si>
 </sst>
 </file>
@@ -346,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -424,6 +433,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -450,9 +474,6 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -499,6 +520,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -830,44 +854,44 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -882,504 +906,604 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="str">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="str">
         <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="str">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="str">
         <f t="shared" ref="G4:G27" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12" t="str">
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2009</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2010</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2011</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2015</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2016</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2016</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>1</v>
       </c>
-      <c r="G24" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2018</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>2</v>
       </c>
-      <c r="G25" s="12" t="str">
+      <c r="G25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2018</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>1</v>
       </c>
-      <c r="G26" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2019</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="str">
+      <c r="G27" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1395,7 +1519,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1412,7 +1536,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1438,87 +1562,87 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -509,6 +509,9 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,33 +854,33 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,9 +889,9 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -906,14 +906,14 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -930,14 +930,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -954,14 +954,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -979,14 +979,14 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -1003,14 +1003,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -1027,14 +1027,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1051,14 +1051,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2009</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -1076,14 +1076,14 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2010</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1093,21 +1093,21 @@
         <v>32</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2011</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -1124,14 +1124,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -1148,14 +1148,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1165,21 +1165,21 @@
         <v>34</v>
       </c>
       <c r="F13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -1196,14 +1196,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -1220,14 +1220,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -1237,21 +1237,21 @@
         <v>35</v>
       </c>
       <c r="F16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -1268,14 +1268,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -1292,14 +1292,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -1316,14 +1316,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2015</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -1340,14 +1340,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2016</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -1364,14 +1364,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2016</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -1381,21 +1381,21 @@
         <v>38</v>
       </c>
       <c r="F22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -1412,14 +1412,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -1436,14 +1436,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>2018</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -1460,14 +1460,14 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>2018</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1484,14 +1484,14 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2019</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -1519,7 +1519,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1536,7 +1536,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1562,14 +1562,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -854,7 +854,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -947,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" ref="G4:G27" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1285,7 +1285,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1333,7 +1333,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1519,7 +1519,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1536,7 +1536,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>Year</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Obv: With mint symbol - "R"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80th anniversary of the National Firefighters Corps</t>
+  </si>
+  <si>
+    <t>150 years since the birth of Maria Montessori</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -577,9 +591,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -848,29 +862,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -889,7 +903,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -906,7 +920,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
@@ -930,7 +944,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
@@ -954,7 +968,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
@@ -979,7 +993,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
@@ -1027,7 +1041,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
@@ -1051,7 +1065,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2009</v>
       </c>
@@ -1076,7 +1090,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2010</v>
       </c>
@@ -1100,7 +1114,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2011</v>
       </c>
@@ -1124,7 +1138,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
@@ -1148,7 +1162,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -1172,7 +1186,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -1196,7 +1210,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -1292,7 +1306,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
@@ -1316,7 +1330,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2015</v>
       </c>
@@ -1340,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2016</v>
       </c>
@@ -1364,7 +1378,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2016</v>
       </c>
@@ -1388,7 +1402,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
@@ -1412,7 +1426,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
@@ -1436,7 +1450,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2018</v>
       </c>
@@ -1460,7 +1474,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2018</v>
       </c>
@@ -1484,7 +1498,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2019</v>
       </c>
@@ -1505,6 +1519,50 @@
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" ref="G28" si="2">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" ref="G29" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1515,11 +1573,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1531,12 +1606,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1562,14 +1637,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -1580,7 +1655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1591,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1602,7 +1677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1613,7 +1688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1624,7 +1699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1635,7 +1710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609AE51-02B5-41DF-9B93-5F5CE065AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Year</t>
   </si>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,17 +535,9 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -553,6 +546,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -584,16 +585,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -861,30 +862,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -903,7 +904,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -920,7 +921,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
@@ -944,7 +945,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
@@ -968,7 +969,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
@@ -993,7 +994,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2009</v>
       </c>
@@ -1090,7 +1091,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2010</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2011</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2015</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2016</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2016</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>2018</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>2018</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2019</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>2020</v>
       </c>
@@ -1535,7 +1536,9 @@
       <c r="D28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="F28" s="10">
         <v>0</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>2020</v>
       </c>
@@ -1557,7 +1560,9 @@
       <c r="D29" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="F29" s="10">
         <v>0</v>
       </c>
@@ -1577,7 +1582,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1594,7 +1599,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1607,7 +1612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1630,21 +1635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1723,12 +1728,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609AE51-02B5-41DF-9B93-5F5CE065AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA9A4D3-BAD1-4614-90B9-FBB04526A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,7 +869,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11" t="str">
         <f t="shared" ref="G28" si="2">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
@@ -1582,7 +1582,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1599,7 +1599,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA9A4D3-BAD1-4614-90B9-FBB04526A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFEC562-2D09-4418-80B8-81CE7E0F5938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -266,13 +275,34 @@
   </si>
   <si>
     <t>150 years since the birth of Maria Montessori</t>
+  </si>
+  <si>
+    <t>30th Anniversary - Death of Judges Giovanni Falcone and Paolo Borsellino</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Declaration of Rome as Capital of Italy</t>
+  </si>
+  <si>
+    <t>Health professionals</t>
+  </si>
+  <si>
+    <t>170th Anniversary - Italian National Police</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Military Air Force</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Death of Alessandro Manzoni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,6 +355,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -537,7 +573,79 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -592,9 +700,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -863,29 +971,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -904,7 +1012,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -921,7 +1029,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
@@ -938,14 +1046,14 @@
         <v>26</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
@@ -969,7 +1077,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
@@ -986,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -994,7 +1102,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
@@ -1018,7 +1126,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
@@ -1042,7 +1150,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
@@ -1066,7 +1174,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2009</v>
       </c>
@@ -1083,15 +1191,15 @@
         <v>31</v>
       </c>
       <c r="F9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2010</v>
       </c>
@@ -1115,7 +1223,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2011</v>
       </c>
@@ -1132,14 +1240,14 @@
         <v>33</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
@@ -1163,7 +1271,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -1187,7 +1295,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -1204,14 +1312,14 @@
         <v>33</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
@@ -1228,14 +1336,14 @@
         <v>33</v>
       </c>
       <c r="F15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
@@ -1259,7 +1367,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
@@ -1276,14 +1384,14 @@
         <v>35</v>
       </c>
       <c r="F17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -1307,7 +1415,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
@@ -1324,14 +1432,14 @@
         <v>36</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2015</v>
       </c>
@@ -1355,7 +1463,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2016</v>
       </c>
@@ -1379,7 +1487,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2016</v>
       </c>
@@ -1403,7 +1511,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
@@ -1427,7 +1535,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
@@ -1451,7 +1559,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2018</v>
       </c>
@@ -1475,7 +1583,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2018</v>
       </c>
@@ -1499,7 +1607,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2019</v>
       </c>
@@ -1523,7 +1631,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>2020</v>
       </c>
@@ -1547,7 +1655,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>2020</v>
       </c>
@@ -1567,7 +1675,175 @@
         <v>0</v>
       </c>
       <c r="G29" s="11" t="str">
-        <f t="shared" ref="G29" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G29:G30" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" ref="G31:G32" si="4">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11" t="str">
+        <f t="shared" ref="G33" si="5">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f t="shared" ref="G34:G36" si="6">IF(OR(AND(F34&gt;1,F34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1577,12 +1853,149 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F7 F5 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1594,12 +2007,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+  <conditionalFormatting sqref="F35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1611,12 +2024,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1639,17 +2052,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +2073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1671,7 +2084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1682,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1693,7 +2106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1704,7 +2117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1715,7 +2128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFEC562-2D09-4418-80B8-81CE7E0F5938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C2607-FCC2-4765-AA26-3371A2444900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>150th Anniversary - Death of Alessandro Manzoni</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -647,23 +656,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -700,9 +692,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -977,7 +969,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -998,17 +990,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -1016,16 +1008,16 @@
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1034,16 +1026,16 @@
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -1058,16 +1050,16 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -1082,16 +1074,16 @@
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -1107,16 +1099,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -1131,16 +1123,16 @@
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -1155,16 +1147,16 @@
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -1179,16 +1171,16 @@
         <v>2009</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10">
         <v>2</v>
@@ -1204,16 +1196,16 @@
         <v>2010</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -1228,16 +1220,16 @@
         <v>2011</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -1252,16 +1244,16 @@
         <v>2012</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -1276,16 +1268,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1300,16 +1292,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1324,16 +1316,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1348,16 +1340,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -1372,16 +1364,16 @@
         <v>2014</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -1396,16 +1388,16 @@
         <v>2015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -1420,16 +1412,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -1444,16 +1436,16 @@
         <v>2015</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
@@ -1468,16 +1460,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -1492,16 +1484,16 @@
         <v>2016</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -1516,16 +1508,16 @@
         <v>2017</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
@@ -1540,16 +1532,16 @@
         <v>2017</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -1564,16 +1556,16 @@
         <v>2018</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="10">
         <v>2</v>
@@ -1588,16 +1580,16 @@
         <v>2018</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
@@ -1612,16 +1604,16 @@
         <v>2019</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -1636,16 +1628,16 @@
         <v>2020</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
@@ -1660,16 +1652,16 @@
         <v>2020</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
@@ -1684,16 +1676,16 @@
         <v>2021</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="10">
         <v>0</v>
@@ -1708,16 +1700,16 @@
         <v>2021</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="10">
         <v>0</v>
@@ -1732,16 +1724,16 @@
         <v>2022</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -1756,16 +1748,16 @@
         <v>2022</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -1780,16 +1772,16 @@
         <v>2022</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -1804,16 +1796,16 @@
         <v>2023</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -1828,16 +1820,16 @@
         <v>2023</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
@@ -1855,11 +1847,11 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F5 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1872,11 +1864,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1889,7 +1881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1906,7 +1898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1923,7 +1915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1940,7 +1932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1957,7 +1949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1974,7 +1966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1991,7 +1983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2008,7 +2000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2025,7 +2017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2064,13 +2056,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2078,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2089,10 +2081,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2100,10 +2092,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2111,10 +2103,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2122,10 +2114,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2133,10 +2125,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
